--- a/data/info_files/month_length_info.xlsx
+++ b/data/info_files/month_length_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\WorkCurrent\Calendar\PaleoCalAdjust\data\info_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Calendar\PaleoCalAdjust\data\info_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>prefix</t>
   </si>
@@ -57,30 +57,15 @@
     <t>IPSL-CM6A-LR_000ka_Amon</t>
   </si>
   <si>
-    <t>tr21</t>
-  </si>
-  <si>
     <t>noleap</t>
   </si>
   <si>
-    <t>PMIP4</t>
-  </si>
-  <si>
-    <t>PMIP360</t>
-  </si>
-  <si>
-    <t>360_day</t>
-  </si>
-  <si>
     <t>CCSM4_006ka_Aclim</t>
   </si>
   <si>
     <t>365_day</t>
   </si>
   <si>
-    <t>Aclim-type files, 6ka and present calendars</t>
-  </si>
-  <si>
     <t>CNRM-CM5_006ka_Aclim</t>
   </si>
   <si>
@@ -118,18 +103,6 @@
   </si>
   <si>
     <t>MPI-ESM-P_000ka_Amon</t>
-  </si>
-  <si>
-    <t>CommonEra</t>
-  </si>
-  <si>
-    <t>Amon-type files, time series</t>
-  </si>
-  <si>
-    <t>transient</t>
-  </si>
-  <si>
-    <t>time-varying values</t>
   </si>
   <si>
     <t>time slice</t>
@@ -284,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,12 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,11 +604,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -964,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -977,7 +942,7 @@
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,18 +965,18 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>-6000</v>
@@ -1028,22 +993,19 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>39</v>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>-6000</v>
@@ -1060,19 +1022,19 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>39</v>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>-6000</v>
@@ -1089,19 +1051,19 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>39</v>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1118,19 +1080,19 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>39</v>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1147,19 +1109,19 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>39</v>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1176,19 +1138,19 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>39</v>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>-6000</v>
@@ -1205,19 +1167,16 @@
       <c r="G8" s="1">
         <v>301</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -1237,19 +1196,19 @@
       <c r="G9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>39</v>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>-6000</v>
@@ -1266,19 +1225,19 @@
       <c r="G10" s="1">
         <v>100</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>39</v>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1295,16 +1254,16 @@
       <c r="G11" s="1">
         <v>301</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>39</v>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -1324,19 +1283,19 @@
       <c r="G12" s="1">
         <v>100</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>39</v>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1353,14 +1312,14 @@
       <c r="G13" s="1">
         <v>100</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>39</v>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1382,14 +1341,14 @@
       <c r="G14" s="1">
         <v>100</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>39</v>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1411,14 +1370,14 @@
       <c r="G15" s="1">
         <v>200</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>39</v>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1440,130 +1399,11 @@
       <c r="G16" s="1">
         <v>200</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>39</v>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-22000</v>
-      </c>
-      <c r="D17" s="2">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-20050</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-150000</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-148050</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-150000</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-148050</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2">
-        <v>-1949</v>
-      </c>
-      <c r="D20" s="2">
-        <v>150</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
